--- a/data/trans_orig/P13A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5443136-67EE-4400-86EB-279220E55AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CE1E73-59A3-4772-88B8-B85E5678D51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D54644C-3230-4078-94A2-240B40E430F5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77EF401E-D511-4A31-A4EE-60D6009A6869}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -83,319 +83,313 @@
     <t>2,02%</t>
   </si>
   <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>3,38%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>96,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E682F57-506D-421B-9B83-17BF7E63ED73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6171CB-35F6-4460-98A5-CC424EF6654E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1322,7 +1316,7 @@
         <v>2390</v>
       </c>
       <c r="N11" s="7">
-        <v>2029622</v>
+        <v>2029623</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1373,7 +1367,7 @@
         <v>2474</v>
       </c>
       <c r="N12" s="7">
-        <v>2093898</v>
+        <v>2093899</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1414,13 +1408,13 @@
         <v>34909</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -1429,13 +1423,13 @@
         <v>43675</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1450,13 +1444,13 @@
         <v>718087</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>989</v>
@@ -1465,13 +1459,13 @@
         <v>837127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>1653</v>
@@ -1480,13 +1474,13 @@
         <v>1555213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,7 +1536,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1554,13 +1548,13 @@
         <v>6341</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -1569,13 +1563,13 @@
         <v>56547</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -1584,13 +1578,13 @@
         <v>62888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,13 +1599,13 @@
         <v>955258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>1484</v>
@@ -1620,13 +1614,13 @@
         <v>1083770</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>2477</v>
@@ -1635,7 +1629,7 @@
         <v>2039028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>100</v>
@@ -1742,10 +1736,10 @@
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1760,13 +1754,13 @@
         <v>3333929</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>5111</v>
@@ -1775,13 +1769,13 @@
         <v>3624434</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>8430</v>
@@ -1790,13 +1784,13 @@
         <v>6958363</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1852,7 +1846,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38CE1E73-59A3-4772-88B8-B85E5678D51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF51C5FC-4434-467B-9718-CD70E4D2A728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{77EF401E-D511-4A31-A4EE-60D6009A6869}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F56CAC01-2290-4269-98A6-609381ECD9ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -128,7 +128,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,55%</t>
@@ -185,7 +185,7 @@
     <t>97,84%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -242,7 +242,7 @@
     <t>97,53%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>1,21%</t>
@@ -804,7 +804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6171CB-35F6-4460-98A5-CC424EF6654E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F041125-3B0F-4284-B985-EEBAA4DAF697}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P13A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF51C5FC-4434-467B-9718-CD70E4D2A728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DA579C-9402-402F-9BB5-6C563D132B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F56CAC01-2290-4269-98A6-609381ECD9ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E93E664C-D32F-4A7B-9C70-95D8BA6A3FF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -83,7 +83,7 @@
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,68%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>4,65%</t>
@@ -92,10 +92,10 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>No</t>
@@ -116,16 +116,16 @@
     <t>95,35%</t>
   </si>
   <si>
-    <t>99,32%</t>
+    <t>99,34%</t>
   </si>
   <si>
     <t>98,86%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -134,55 +134,55 @@
     <t>1,55%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
   </si>
   <si>
     <t>4,24%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>95,76%</t>
   </si>
   <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -191,205 +191,211 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>4,63%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
   </si>
   <si>
     <t>4,0%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
   </si>
   <si>
     <t>96,0%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>97,27%</t>
   </si>
   <si>
-    <t>96,37%</t>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>4,44%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>95,56%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>96,62%</t>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -804,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F041125-3B0F-4284-B985-EEBAA4DAF697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B075A697-6303-4831-A4FF-24F9390E76CF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1316,7 +1322,7 @@
         <v>2390</v>
       </c>
       <c r="N11" s="7">
-        <v>2029623</v>
+        <v>2029622</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>65</v>
@@ -1367,7 +1373,7 @@
         <v>2474</v>
       </c>
       <c r="N12" s="7">
-        <v>2093899</v>
+        <v>2093898</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>23</v>
@@ -1408,13 +1414,13 @@
         <v>34909</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -1423,13 +1429,13 @@
         <v>43675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,13 +1450,13 @@
         <v>718087</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>989</v>
@@ -1459,13 +1465,13 @@
         <v>837127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>1653</v>
@@ -1474,13 +1480,13 @@
         <v>1555213</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1536,7 +1542,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1548,13 +1554,13 @@
         <v>6341</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>64</v>
@@ -1563,13 +1569,13 @@
         <v>56547</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -1578,13 +1584,13 @@
         <v>62888</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1599,13 +1605,13 @@
         <v>955258</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>1484</v>
@@ -1614,13 +1620,13 @@
         <v>1083770</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>2477</v>
@@ -1629,7 +1635,7 @@
         <v>2039028</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>100</v>
@@ -1736,10 +1742,10 @@
         <v>108</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1754,13 +1760,13 @@
         <v>3333929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H20" s="7">
         <v>5111</v>
@@ -1769,13 +1775,13 @@
         <v>3624434</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>8430</v>
@@ -1784,13 +1790,13 @@
         <v>6958363</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1846,7 +1852,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P13A_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50DA579C-9402-402F-9BB5-6C563D132B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C8D85BF-FA4A-4520-B214-2016AF5A23C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E93E664C-D32F-4A7B-9C70-95D8BA6A3FF8}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{36D03061-505E-4CD8-83F4-962F11B47BAF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Población que sufre dolor de cabeza 15 días o más al mes en 2023 (Tasa respuesta: 99,52%)</t>
   </si>
@@ -65,337 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>100%</t>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>97,98%</t>
   </si>
   <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
   </si>
   <si>
     <t>2,22%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>97,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -810,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B075A697-6303-4831-A4FF-24F9390E76CF}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7928E067-E154-4DB3-B163-3B7735EEDA97}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -928,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>8271</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -943,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>2630</v>
+        <v>25454</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -958,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="N4" s="7">
-        <v>2630</v>
+        <v>33725</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -979,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>116</v>
+        <v>716</v>
       </c>
       <c r="D5" s="7">
-        <v>100186</v>
+        <v>624242</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -994,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>236</v>
+        <v>1194</v>
       </c>
       <c r="I5" s="7">
-        <v>127377</v>
+        <v>648716</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1009,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>352</v>
+        <v>1910</v>
       </c>
       <c r="N5" s="7">
-        <v>227564</v>
+        <v>1272958</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1030,96 +982,96 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>116</v>
+        <v>726</v>
       </c>
       <c r="D6" s="7">
-        <v>100186</v>
+        <v>632513</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>241</v>
+        <v>1235</v>
       </c>
       <c r="I6" s="7">
-        <v>130007</v>
+        <v>674170</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>357</v>
+        <v>1961</v>
       </c>
       <c r="N6" s="7">
-        <v>230194</v>
+        <v>1306683</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>8506</v>
+        <v>14768</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
+        <v>70</v>
+      </c>
+      <c r="I7" s="7">
+        <v>45187</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="7">
-        <v>25125</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="N7" s="7">
-        <v>33632</v>
+        <v>59955</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>38</v>
@@ -1134,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>600</v>
+        <v>946</v>
       </c>
       <c r="D8" s="7">
-        <v>540066</v>
+        <v>1174566</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>40</v>
@@ -1149,10 +1101,10 @@
         <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>958</v>
+        <v>1444</v>
       </c>
       <c r="I8" s="7">
-        <v>566871</v>
+        <v>911845</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>43</v>
@@ -1164,19 +1116,19 @@
         <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>1558</v>
+        <v>2390</v>
       </c>
       <c r="N8" s="7">
-        <v>1106935</v>
+        <v>2086411</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1185,102 +1137,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>610</v>
+        <v>960</v>
       </c>
       <c r="D9" s="7">
-        <v>548572</v>
+        <v>1189334</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I9" s="7">
-        <v>591996</v>
+        <v>957032</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1604</v>
+        <v>2474</v>
       </c>
       <c r="N9" s="7">
-        <v>1140567</v>
+        <v>2146366</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>15242</v>
+        <v>8290</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>54</v>
+      </c>
+      <c r="I10" s="7">
+        <v>31772</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="7">
-        <v>70</v>
-      </c>
-      <c r="I10" s="7">
-        <v>49033</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>64</v>
+      </c>
+      <c r="N10" s="7">
+        <v>40062</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="M10" s="7">
-        <v>84</v>
-      </c>
-      <c r="N10" s="7">
-        <v>64276</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1289,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>946</v>
+        <v>664</v>
       </c>
       <c r="D11" s="7">
-        <v>1020333</v>
+        <v>694624</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>989</v>
+      </c>
+      <c r="I11" s="7">
+        <v>899458</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H11" s="7">
-        <v>1444</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1009291</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1653</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1594082</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="7">
-        <v>2390</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2029622</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,102 +1292,102 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>960</v>
+        <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>1035575</v>
+        <v>702914</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1514</v>
+        <v>1043</v>
       </c>
       <c r="I12" s="7">
-        <v>1058324</v>
+        <v>931230</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2474</v>
+        <v>1717</v>
       </c>
       <c r="N12" s="7">
-        <v>2093898</v>
+        <v>1634144</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>8765</v>
+        <v>6064</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>64</v>
+      </c>
+      <c r="I13" s="7">
+        <v>49421</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>54</v>
-      </c>
-      <c r="I13" s="7">
-        <v>34909</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>72</v>
+      </c>
+      <c r="N13" s="7">
+        <v>55485</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="M13" s="7">
-        <v>64</v>
-      </c>
-      <c r="N13" s="7">
-        <v>43675</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1444,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>664</v>
+        <v>993</v>
       </c>
       <c r="D14" s="7">
-        <v>718087</v>
+        <v>917243</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>1484</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1036494</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>989</v>
-      </c>
-      <c r="I14" s="7">
-        <v>837127</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2477</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1953737</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="M14" s="7">
-        <v>1653</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1555213</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,96 +1447,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>674</v>
+        <v>1001</v>
       </c>
       <c r="D15" s="7">
-        <v>726852</v>
+        <v>923307</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1043</v>
+        <v>1548</v>
       </c>
       <c r="I15" s="7">
-        <v>872036</v>
+        <v>1085915</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1717</v>
+        <v>2549</v>
       </c>
       <c r="N15" s="7">
-        <v>1598888</v>
+        <v>2009222</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>6341</v>
+        <v>37393</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>229</v>
+      </c>
+      <c r="I16" s="7">
+        <v>151834</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="H16" s="7">
-        <v>64</v>
-      </c>
-      <c r="I16" s="7">
-        <v>56547</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>271</v>
+      </c>
+      <c r="N16" s="7">
+        <v>189227</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="M16" s="7">
-        <v>72</v>
-      </c>
-      <c r="N16" s="7">
-        <v>62888</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>93</v>
@@ -1599,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>993</v>
+        <v>3319</v>
       </c>
       <c r="D17" s="7">
-        <v>955258</v>
+        <v>3410675</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
-        <v>1484</v>
+        <v>5111</v>
       </c>
       <c r="I17" s="7">
-        <v>1083770</v>
+        <v>3496514</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
-        <v>2477</v>
+        <v>8430</v>
       </c>
       <c r="N17" s="7">
-        <v>2039028</v>
+        <v>6907189</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,217 +1602,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1001</v>
+        <v>3361</v>
       </c>
       <c r="D18" s="7">
-        <v>961599</v>
+        <v>3448068</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1548</v>
+        <v>5340</v>
       </c>
       <c r="I18" s="7">
-        <v>1140317</v>
+        <v>3648348</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2549</v>
+        <v>8701</v>
       </c>
       <c r="N18" s="7">
-        <v>2101916</v>
+        <v>7096416</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>42</v>
-      </c>
-      <c r="D19" s="7">
-        <v>38855</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="A19" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="7">
-        <v>229</v>
-      </c>
-      <c r="I19" s="7">
-        <v>168246</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>271</v>
-      </c>
-      <c r="N19" s="7">
-        <v>207101</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3319</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3333929</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5111</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3624434</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>8430</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6958363</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3361</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3372784</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5340</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3792680</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8701</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7165464</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
